--- a/medicine/Enfance/Gordon_D._Shirreffs/Gordon_D._Shirreffs.xlsx
+++ b/medicine/Enfance/Gordon_D._Shirreffs/Gordon_D._Shirreffs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gordon D. Shirreffs, né à Chicago le 15 janvier 1914, et mort le 9 février 1996, est un auteur américain de roman western, ainsi que de romans policiers et d'aventures de littérature d’enfance et de jeunesse. Il a signé quelques œuvres sous les pseudonymes Jackson Flynn, Gordon Donalds et Stewart Gordon.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses études, il travaille comme employé de bureau à l’Union Tank Car Company (en). Pendant la Deuxième Guerre mondiale, il sert dans la cavalerie et, pendant sa formation à Fort Bliss, au Texas, il rencontre sa femme, Alice Johanna Gutwin, qu’il épouse le 8 février 1941. Pendant et après leur lune de miel, les jeunes époux parcourent le Sud-Ouest des États-Unis, décor de l’œuvre future de Gordon D. Shirreffs, à laquelle il rêve déjà. Démobilisé en 1946, il se sert de sa bourse de G.I. pour achever ses études en journalisme à l’université Northwestern., tout en reprenant son emploi de bureau. Il est ensuite vendeur chez Brown &amp; Bigelow (en) avant d’être le propriétaire d’une boutique de jouets de 1948 à 1952, année où il déménage en Californie.
 Il amorce sa carrière littéraire dès 1947, en publiant des nouvelles westerns dans divers pulps. Le succès qu’il obtient l’encourage à se consacrer entièrement à l’écriture et, à partir du moment de son installation en Californie, il augmente la cadence de ses parutions. Il n’aborde le roman qu’en 1956 avec Rio Bravo, mais délaisse alors rapidement la nouvelle au profit de cette forme de récit plus longue et mieux adapté à sa sensibilité. Jusqu'en 1994, il donne près de quatre-vingts romans, dont une cinquantaine sont de purs westerns parmi lesquels se dénombrent plusieurs classiques du genre, notamment Rio Bravo (1956), Une nuit en Arizona (1964), La Loi du sang (1969) et la série Manhunter (1974-1988). Une salve pour le shérif est une novélisation du film de John Sturges intitulé Le Dernier Train de Gun Hill (1959), fondé sur un scénario original de Les Crutchfield et James Poe.
@@ -547,20 +561,105 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Manhunter
-Showdown in Sonora (1969) Publié en français dans une autre traduction sous le titre Le Chasseur d’hommes, Paris, Librairie des Champs-Élysées, Le Masque - Western no 52, 1971
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Manhunter</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Showdown in Sonora (1969) Publié en français dans une autre traduction sous le titre Le Chasseur d’hommes, Paris, Librairie des Champs-Élysées, Le Masque - Western no 52, 1971
 The Manhunter (1970) Publié en français dans une autre traduction sous le titre La Vallée maudite, Paris, Librairie des Champs-Élysées, Le Masque - Western no 62, 1972
 Bowman's Kid (1973) Publié en français dans une autre traduction sous le titre Le Kid de Las Vegas, Paris, Librairie des Champs-Élysées, Le Masque - Western no 138, 1975
 Renegade's Trail (1974) Publié en français dans une autre traduction sous le titre Quého le métis, Paris, Librairie des Champs-Élysées, Le Masque - Western no 218, 1979
 The Apache Hunter (1976) Publié en français dans une autre traduction sous le titre Le Chasseur d’Apaches, Paris, Librairie des Champs-Élysées, Le Masque – Spécial Western no 185, 1977
 The Marauders (1976) Publié en français dans une autre traduction sous le titre Les Maraudeurs, Paris, Librairie des Champs-Élysées, Le Masque – Spécial Western no 198, 1978
-Legend of the Damned (1977)
-Série Quint Kershaw
-The Untamed Breed (1981)
+Legend of the Damned (1977)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Quint Kershaw</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Untamed Breed (1981)
 Bold Legend (1982)
-Glorieta Pass (1984)
-Autres romans westerns
+Glorieta Pass (1984)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans westerns</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rio Bravo (1956) Publié en français dans une autre traduction sous le titre Rio Bravo, Paris, Librairie des Champs-Élysées, Le Masque - Western no 28, 1969
 Arizona Justice (1956)
 Ambush on the Mesa (1957) Publié en français dans une autre traduction sous le titre Une fille de l’Ouest, Paris, Librairie des Champs-Élysées, Le Masque - Western no 6, 1967
@@ -614,25 +713,215 @@
 The Hidden Rider of Dark Mountain (1989)
 The Walking Sands (1990)
 The Devil's Dance Floor (1994)
-Série western Gunsmoke signée Jackson Flynn
-The Renegades (1974)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série western Gunsmoke signée Jackson Flynn</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Renegades (1974)
 Shoot Out (1974)
 Duel au Dodge City (1974)
-Cheyenne Vengeance (1975)
-Romans signés Gordon Donalds
-Arizona Justice (1956), réédité en 1983 sous la signature Gordon D. Shirreffs
+Cheyenne Vengeance (1975)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Romans signés Gordon Donalds</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Arizona Justice (1956), réédité en 1983 sous la signature Gordon D. Shirreffs
 Top Gun: Violence on the New Mexico Frontier (1957), réédité en 1977 sous la signature Gordon D. Shirreffs
-The Desperate Donigans (1957)
-Roman signé Stewart Gordon
-Gunswift (1979), réédité en 1996 sous la signature Gordon D. Shirreffs
-Littérature d’enfance et de jeunesse
-Romans policiers
-Mystery of Lost Canyon (1963)
+The Desperate Donigans (1957)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Roman signé Stewart Gordon</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Gunswift (1979), réédité en 1996 sous la signature Gordon D. Shirreffs</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Mystery of Lost Canyon (1963)
 The Secret of the Spanish Desert (1964)
 The Mystery of the Lost Cliff Dwelling (1968)
-Mystery of the Haunted Mine (1970)
-Romans d’aventures
-Son of the Thunder People (1957), roman western
+Mystery of the Haunted Mine (1970)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Romans d’aventures</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Son of the Thunder People (1957), roman western
 Roanoke Raiders (1959)
 The Rebel Trumpet (1960), roman western
 Action Front! (1962)
@@ -643,13 +932,119 @@
 The Enemy Seas (1965)
 The Bolo Battalion (1966)
 Torpedoes Away! (1967)
-Calgaich the Swordsman (1980), fantasy
-Novelisation
-Last Train from Gunhill (1958) Publié en français sous le titre Une salve pour le shérif, Paris, Gallimard, Série noire no 561, 1960
-Autre publication
-They Met Danger (1960)
-Nouvelles
-Nouvelles westerns
+Calgaich the Swordsman (1980), fantasy</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Novelisation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Last Train from Gunhill (1958) Publié en français sous le titre Une salve pour le shérif, Paris, Gallimard, Série noire no 561, 1960</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Autre publication</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>They Met Danger (1960)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Nouvelles westerns</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Scalp the Tinhorn Troopers! (1947)
 Reflected Glory (1947)
 Apache Scout (1951)
@@ -738,44 +1133,160 @@
 Hunter and Hunted (1956)
 Trail of Vengeance (1957)
 Stage to Hellfire Pass (1957)
-Nouvelles de littérature d'enfance et de jeunesse
-Yellow Dust (1955)
-Wolf Warrior of the Pawnees (1957)
-Adaptations
-Au cinéma
-1955 : The Lonesome Trail, film américain de Richard Bartlett, d’après la nouvelle Silent Reckoning[1] (1954).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Nouvelles de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Yellow Dust (1955)
+Wolf Warrior of the Pawnees (1957)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1955 : The Lonesome Trail, film américain de Richard Bartlett, d’après la nouvelle Silent Reckoning (1954).
 1957 : Le Repaire de l’aigle noir (it), film américain de Paul Landres, d’après le roman Rio Bravo (1956).
-1968 : L'Évadé de Yuma (Vivo per la tua morte), western-spaghetti de Camillo Bazzoni, d’après le roman Une nuit en Arizona (1964).
-À la télévision
-1957 : Galvanized Yankee, épisode de la série télévisée américaine d’anthologie Playhouse 90 (saison 2, épisode 13), réalisé par Paul Wendkos.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Gordon_D._Shirreffs</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gordon_D._Shirreffs</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+1968 : L'Évadé de Yuma (Vivo per la tua morte), western-spaghetti de Camillo Bazzoni, d’après le roman Une nuit en Arizona (1964).</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1957 : Galvanized Yankee, épisode de la série télévisée américaine d’anthologie Playhouse 90 (saison 2, épisode 13), réalisé par Paul Wendkos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_D._Shirreffs</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Jacques Baudou et Jean-Jacques Schleret, Le Vrai Visage du Masque, vol. 1, Paris, Futuropolis, 1984, 476 p. (OCLC 311506692), p. 402.
 Claude Mesplède et Jean-Jacques Schleret, SN, voyage au bout de la Noire : inventaire de 732 auteurs et de leurs œuvres publiés en séries Noire et Blème : suivi d'une filmographie complète, Paris, Futuropolis, 1982 (OCLC 11972030), p. 333-334.</t>
